--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.063203" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.323881" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="14.828843" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.16609" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="16.934162" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="4.505971" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="16.718503" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="4.16609" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
